--- a/sequences/05_retrieval_2.xlsx
+++ b/sequences/05_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -2120,6 +2120,30 @@
       <c r="F8" t="s">
         <v>211</v>
       </c>
+      <c r="G8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" t="s">
+        <v>211</v>
+      </c>
+      <c r="M8" t="s">
+        <v>211</v>
+      </c>
+      <c r="N8" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
@@ -2272,6 +2296,30 @@
       <c r="F12" t="s">
         <v>211</v>
       </c>
+      <c r="G12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" t="s">
+        <v>211</v>
+      </c>
+      <c r="M12" t="s">
+        <v>211</v>
+      </c>
+      <c r="N12" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
@@ -2292,6 +2340,30 @@
       <c r="F13" t="s">
         <v>211</v>
       </c>
+      <c r="G13" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L13" t="s">
+        <v>211</v>
+      </c>
+      <c r="M13" t="s">
+        <v>211</v>
+      </c>
+      <c r="N13" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -2312,6 +2384,30 @@
       <c r="F14" t="s">
         <v>211</v>
       </c>
+      <c r="G14" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" t="s">
+        <v>211</v>
+      </c>
+      <c r="I14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" t="s">
+        <v>211</v>
+      </c>
+      <c r="M14" t="s">
+        <v>211</v>
+      </c>
+      <c r="N14" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
@@ -2376,6 +2472,30 @@
       <c r="F16" t="s">
         <v>211</v>
       </c>
+      <c r="G16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J16" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" t="s">
+        <v>211</v>
+      </c>
+      <c r="L16" t="s">
+        <v>211</v>
+      </c>
+      <c r="M16" t="s">
+        <v>211</v>
+      </c>
+      <c r="N16" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
@@ -2440,6 +2560,30 @@
       <c r="F18" t="s">
         <v>211</v>
       </c>
+      <c r="G18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" t="s">
+        <v>211</v>
+      </c>
+      <c r="J18" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L18" t="s">
+        <v>211</v>
+      </c>
+      <c r="M18" t="s">
+        <v>211</v>
+      </c>
+      <c r="N18" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
@@ -2592,6 +2736,30 @@
       <c r="F22" t="s">
         <v>211</v>
       </c>
+      <c r="G22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" t="s">
+        <v>211</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M22" t="s">
+        <v>211</v>
+      </c>
+      <c r="N22" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
@@ -2612,6 +2780,30 @@
       <c r="F23" t="s">
         <v>211</v>
       </c>
+      <c r="G23" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" t="s">
+        <v>211</v>
+      </c>
+      <c r="I23" t="s">
+        <v>211</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="s">
+        <v>211</v>
+      </c>
+      <c r="N23" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
@@ -2632,6 +2824,30 @@
       <c r="F24" t="s">
         <v>211</v>
       </c>
+      <c r="G24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" t="s">
+        <v>211</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="s">
+        <v>211</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
@@ -2740,6 +2956,30 @@
       <c r="F27" t="s">
         <v>211</v>
       </c>
+      <c r="G27" t="s">
+        <v>211</v>
+      </c>
+      <c r="H27" t="s">
+        <v>211</v>
+      </c>
+      <c r="I27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="s">
+        <v>211</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2760,6 +3000,30 @@
       <c r="F28" t="s">
         <v>211</v>
       </c>
+      <c r="G28" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" t="s">
+        <v>211</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M28" t="s">
+        <v>211</v>
+      </c>
+      <c r="N28" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
@@ -2868,6 +3132,30 @@
       <c r="F31" t="s">
         <v>211</v>
       </c>
+      <c r="G31" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" t="s">
+        <v>211</v>
+      </c>
+      <c r="I31" t="s">
+        <v>211</v>
+      </c>
+      <c r="J31" t="s">
+        <v>211</v>
+      </c>
+      <c r="K31" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" t="s">
+        <v>211</v>
+      </c>
+      <c r="M31" t="s">
+        <v>211</v>
+      </c>
+      <c r="N31" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
@@ -2976,6 +3264,30 @@
       <c r="F34" t="s">
         <v>211</v>
       </c>
+      <c r="G34" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" t="s">
+        <v>211</v>
+      </c>
+      <c r="I34" t="s">
+        <v>211</v>
+      </c>
+      <c r="J34" t="s">
+        <v>211</v>
+      </c>
+      <c r="K34" t="s">
+        <v>211</v>
+      </c>
+      <c r="L34" t="s">
+        <v>211</v>
+      </c>
+      <c r="M34" t="s">
+        <v>211</v>
+      </c>
+      <c r="N34" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3040,6 +3352,30 @@
       <c r="F36" t="s">
         <v>211</v>
       </c>
+      <c r="G36" t="s">
+        <v>211</v>
+      </c>
+      <c r="H36" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" t="s">
+        <v>211</v>
+      </c>
+      <c r="J36" t="s">
+        <v>211</v>
+      </c>
+      <c r="K36" t="s">
+        <v>211</v>
+      </c>
+      <c r="L36" t="s">
+        <v>211</v>
+      </c>
+      <c r="M36" t="s">
+        <v>211</v>
+      </c>
+      <c r="N36" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
@@ -3060,6 +3396,30 @@
       <c r="F37" t="s">
         <v>211</v>
       </c>
+      <c r="G37" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" t="s">
+        <v>211</v>
+      </c>
+      <c r="I37" t="s">
+        <v>211</v>
+      </c>
+      <c r="J37" t="s">
+        <v>211</v>
+      </c>
+      <c r="K37" t="s">
+        <v>211</v>
+      </c>
+      <c r="L37" t="s">
+        <v>211</v>
+      </c>
+      <c r="M37" t="s">
+        <v>211</v>
+      </c>
+      <c r="N37" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
@@ -3256,6 +3616,30 @@
       <c r="F42" t="s">
         <v>211</v>
       </c>
+      <c r="G42" t="s">
+        <v>211</v>
+      </c>
+      <c r="H42" t="s">
+        <v>211</v>
+      </c>
+      <c r="I42" t="s">
+        <v>211</v>
+      </c>
+      <c r="J42" t="s">
+        <v>211</v>
+      </c>
+      <c r="K42" t="s">
+        <v>211</v>
+      </c>
+      <c r="L42" t="s">
+        <v>211</v>
+      </c>
+      <c r="M42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N42" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
@@ -3276,6 +3660,30 @@
       <c r="F43" t="s">
         <v>211</v>
       </c>
+      <c r="G43" t="s">
+        <v>211</v>
+      </c>
+      <c r="H43" t="s">
+        <v>211</v>
+      </c>
+      <c r="I43" t="s">
+        <v>211</v>
+      </c>
+      <c r="J43" t="s">
+        <v>211</v>
+      </c>
+      <c r="K43" t="s">
+        <v>211</v>
+      </c>
+      <c r="L43" t="s">
+        <v>211</v>
+      </c>
+      <c r="M43" t="s">
+        <v>211</v>
+      </c>
+      <c r="N43" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
@@ -3428,6 +3836,30 @@
       <c r="F47" t="s">
         <v>211</v>
       </c>
+      <c r="G47" t="s">
+        <v>211</v>
+      </c>
+      <c r="H47" t="s">
+        <v>211</v>
+      </c>
+      <c r="I47" t="s">
+        <v>211</v>
+      </c>
+      <c r="J47" t="s">
+        <v>211</v>
+      </c>
+      <c r="K47" t="s">
+        <v>211</v>
+      </c>
+      <c r="L47" t="s">
+        <v>211</v>
+      </c>
+      <c r="M47" t="s">
+        <v>211</v>
+      </c>
+      <c r="N47" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
@@ -3448,6 +3880,30 @@
       <c r="F48" t="s">
         <v>211</v>
       </c>
+      <c r="G48" t="s">
+        <v>211</v>
+      </c>
+      <c r="H48" t="s">
+        <v>211</v>
+      </c>
+      <c r="I48" t="s">
+        <v>211</v>
+      </c>
+      <c r="J48" t="s">
+        <v>211</v>
+      </c>
+      <c r="K48" t="s">
+        <v>211</v>
+      </c>
+      <c r="L48" t="s">
+        <v>211</v>
+      </c>
+      <c r="M48" t="s">
+        <v>211</v>
+      </c>
+      <c r="N48" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
@@ -3468,6 +3924,30 @@
       <c r="F49" t="s">
         <v>211</v>
       </c>
+      <c r="G49" t="s">
+        <v>211</v>
+      </c>
+      <c r="H49" t="s">
+        <v>211</v>
+      </c>
+      <c r="I49" t="s">
+        <v>211</v>
+      </c>
+      <c r="J49" t="s">
+        <v>211</v>
+      </c>
+      <c r="K49" t="s">
+        <v>211</v>
+      </c>
+      <c r="L49" t="s">
+        <v>211</v>
+      </c>
+      <c r="M49" t="s">
+        <v>211</v>
+      </c>
+      <c r="N49" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
@@ -3532,6 +4012,30 @@
       <c r="F51" t="s">
         <v>211</v>
       </c>
+      <c r="G51" t="s">
+        <v>211</v>
+      </c>
+      <c r="H51" t="s">
+        <v>211</v>
+      </c>
+      <c r="I51" t="s">
+        <v>211</v>
+      </c>
+      <c r="J51" t="s">
+        <v>211</v>
+      </c>
+      <c r="K51" t="s">
+        <v>211</v>
+      </c>
+      <c r="L51" t="s">
+        <v>211</v>
+      </c>
+      <c r="M51" t="s">
+        <v>211</v>
+      </c>
+      <c r="N51" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
@@ -3552,6 +4056,30 @@
       <c r="F52" t="s">
         <v>211</v>
       </c>
+      <c r="G52" t="s">
+        <v>211</v>
+      </c>
+      <c r="H52" t="s">
+        <v>211</v>
+      </c>
+      <c r="I52" t="s">
+        <v>211</v>
+      </c>
+      <c r="J52" t="s">
+        <v>211</v>
+      </c>
+      <c r="K52" t="s">
+        <v>211</v>
+      </c>
+      <c r="L52" t="s">
+        <v>211</v>
+      </c>
+      <c r="M52" t="s">
+        <v>211</v>
+      </c>
+      <c r="N52" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
@@ -3616,6 +4144,30 @@
       <c r="F54" t="s">
         <v>211</v>
       </c>
+      <c r="G54" t="s">
+        <v>211</v>
+      </c>
+      <c r="H54" t="s">
+        <v>211</v>
+      </c>
+      <c r="I54" t="s">
+        <v>211</v>
+      </c>
+      <c r="J54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K54" t="s">
+        <v>211</v>
+      </c>
+      <c r="L54" t="s">
+        <v>211</v>
+      </c>
+      <c r="M54" t="s">
+        <v>211</v>
+      </c>
+      <c r="N54" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
@@ -3680,6 +4232,30 @@
       <c r="F56" t="s">
         <v>211</v>
       </c>
+      <c r="G56" t="s">
+        <v>211</v>
+      </c>
+      <c r="H56" t="s">
+        <v>211</v>
+      </c>
+      <c r="I56" t="s">
+        <v>211</v>
+      </c>
+      <c r="J56" t="s">
+        <v>211</v>
+      </c>
+      <c r="K56" t="s">
+        <v>211</v>
+      </c>
+      <c r="L56" t="s">
+        <v>211</v>
+      </c>
+      <c r="M56" t="s">
+        <v>211</v>
+      </c>
+      <c r="N56" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
@@ -3700,6 +4276,30 @@
       <c r="F57" t="s">
         <v>211</v>
       </c>
+      <c r="G57" t="s">
+        <v>211</v>
+      </c>
+      <c r="H57" t="s">
+        <v>211</v>
+      </c>
+      <c r="I57" t="s">
+        <v>211</v>
+      </c>
+      <c r="J57" t="s">
+        <v>211</v>
+      </c>
+      <c r="K57" t="s">
+        <v>211</v>
+      </c>
+      <c r="L57" t="s">
+        <v>211</v>
+      </c>
+      <c r="M57" t="s">
+        <v>211</v>
+      </c>
+      <c r="N57" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
@@ -3984,6 +4584,30 @@
       <c r="F64" t="s">
         <v>211</v>
       </c>
+      <c r="G64" t="s">
+        <v>211</v>
+      </c>
+      <c r="H64" t="s">
+        <v>211</v>
+      </c>
+      <c r="I64" t="s">
+        <v>211</v>
+      </c>
+      <c r="J64" t="s">
+        <v>211</v>
+      </c>
+      <c r="K64" t="s">
+        <v>211</v>
+      </c>
+      <c r="L64" t="s">
+        <v>211</v>
+      </c>
+      <c r="M64" t="s">
+        <v>211</v>
+      </c>
+      <c r="N64" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
@@ -4180,6 +4804,30 @@
       <c r="F69" t="s">
         <v>211</v>
       </c>
+      <c r="G69" t="s">
+        <v>211</v>
+      </c>
+      <c r="H69" t="s">
+        <v>211</v>
+      </c>
+      <c r="I69" t="s">
+        <v>211</v>
+      </c>
+      <c r="J69" t="s">
+        <v>211</v>
+      </c>
+      <c r="K69" t="s">
+        <v>211</v>
+      </c>
+      <c r="L69" t="s">
+        <v>211</v>
+      </c>
+      <c r="M69" t="s">
+        <v>211</v>
+      </c>
+      <c r="N69" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
@@ -4332,6 +4980,30 @@
       <c r="F73" t="s">
         <v>211</v>
       </c>
+      <c r="G73" t="s">
+        <v>211</v>
+      </c>
+      <c r="H73" t="s">
+        <v>211</v>
+      </c>
+      <c r="I73" t="s">
+        <v>211</v>
+      </c>
+      <c r="J73" t="s">
+        <v>211</v>
+      </c>
+      <c r="K73" t="s">
+        <v>211</v>
+      </c>
+      <c r="L73" t="s">
+        <v>211</v>
+      </c>
+      <c r="M73" t="s">
+        <v>211</v>
+      </c>
+      <c r="N73" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
@@ -4572,6 +5244,30 @@
       <c r="F79" t="s">
         <v>211</v>
       </c>
+      <c r="G79" t="s">
+        <v>211</v>
+      </c>
+      <c r="H79" t="s">
+        <v>211</v>
+      </c>
+      <c r="I79" t="s">
+        <v>211</v>
+      </c>
+      <c r="J79" t="s">
+        <v>211</v>
+      </c>
+      <c r="K79" t="s">
+        <v>211</v>
+      </c>
+      <c r="L79" t="s">
+        <v>211</v>
+      </c>
+      <c r="M79" t="s">
+        <v>211</v>
+      </c>
+      <c r="N79" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
@@ -4592,6 +5288,30 @@
       <c r="F80" t="s">
         <v>211</v>
       </c>
+      <c r="G80" t="s">
+        <v>211</v>
+      </c>
+      <c r="H80" t="s">
+        <v>211</v>
+      </c>
+      <c r="I80" t="s">
+        <v>211</v>
+      </c>
+      <c r="J80" t="s">
+        <v>211</v>
+      </c>
+      <c r="K80" t="s">
+        <v>211</v>
+      </c>
+      <c r="L80" t="s">
+        <v>211</v>
+      </c>
+      <c r="M80" t="s">
+        <v>211</v>
+      </c>
+      <c r="N80" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
@@ -4744,6 +5464,30 @@
       <c r="F84" t="s">
         <v>211</v>
       </c>
+      <c r="G84" t="s">
+        <v>211</v>
+      </c>
+      <c r="H84" t="s">
+        <v>211</v>
+      </c>
+      <c r="I84" t="s">
+        <v>211</v>
+      </c>
+      <c r="J84" t="s">
+        <v>211</v>
+      </c>
+      <c r="K84" t="s">
+        <v>211</v>
+      </c>
+      <c r="L84" t="s">
+        <v>211</v>
+      </c>
+      <c r="M84" t="s">
+        <v>211</v>
+      </c>
+      <c r="N84" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
@@ -4896,6 +5640,30 @@
       <c r="F88" t="s">
         <v>211</v>
       </c>
+      <c r="G88" t="s">
+        <v>211</v>
+      </c>
+      <c r="H88" t="s">
+        <v>211</v>
+      </c>
+      <c r="I88" t="s">
+        <v>211</v>
+      </c>
+      <c r="J88" t="s">
+        <v>211</v>
+      </c>
+      <c r="K88" t="s">
+        <v>211</v>
+      </c>
+      <c r="L88" t="s">
+        <v>211</v>
+      </c>
+      <c r="M88" t="s">
+        <v>211</v>
+      </c>
+      <c r="N88" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
@@ -4916,6 +5684,30 @@
       <c r="F89" t="s">
         <v>211</v>
       </c>
+      <c r="G89" t="s">
+        <v>211</v>
+      </c>
+      <c r="H89" t="s">
+        <v>211</v>
+      </c>
+      <c r="I89" t="s">
+        <v>211</v>
+      </c>
+      <c r="J89" t="s">
+        <v>211</v>
+      </c>
+      <c r="K89" t="s">
+        <v>211</v>
+      </c>
+      <c r="L89" t="s">
+        <v>211</v>
+      </c>
+      <c r="M89" t="s">
+        <v>211</v>
+      </c>
+      <c r="N89" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
@@ -5024,6 +5816,30 @@
       <c r="F92" t="s">
         <v>211</v>
       </c>
+      <c r="G92" t="s">
+        <v>211</v>
+      </c>
+      <c r="H92" t="s">
+        <v>211</v>
+      </c>
+      <c r="I92" t="s">
+        <v>211</v>
+      </c>
+      <c r="J92" t="s">
+        <v>211</v>
+      </c>
+      <c r="K92" t="s">
+        <v>211</v>
+      </c>
+      <c r="L92" t="s">
+        <v>211</v>
+      </c>
+      <c r="M92" t="s">
+        <v>211</v>
+      </c>
+      <c r="N92" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
@@ -5044,6 +5860,30 @@
       <c r="F93" t="s">
         <v>211</v>
       </c>
+      <c r="G93" t="s">
+        <v>211</v>
+      </c>
+      <c r="H93" t="s">
+        <v>211</v>
+      </c>
+      <c r="I93" t="s">
+        <v>211</v>
+      </c>
+      <c r="J93" t="s">
+        <v>211</v>
+      </c>
+      <c r="K93" t="s">
+        <v>211</v>
+      </c>
+      <c r="L93" t="s">
+        <v>211</v>
+      </c>
+      <c r="M93" t="s">
+        <v>211</v>
+      </c>
+      <c r="N93" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
@@ -5064,6 +5904,30 @@
       <c r="F94" t="s">
         <v>211</v>
       </c>
+      <c r="G94" t="s">
+        <v>211</v>
+      </c>
+      <c r="H94" t="s">
+        <v>211</v>
+      </c>
+      <c r="I94" t="s">
+        <v>211</v>
+      </c>
+      <c r="J94" t="s">
+        <v>211</v>
+      </c>
+      <c r="K94" t="s">
+        <v>211</v>
+      </c>
+      <c r="L94" t="s">
+        <v>211</v>
+      </c>
+      <c r="M94" t="s">
+        <v>211</v>
+      </c>
+      <c r="N94" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
@@ -5348,6 +6212,30 @@
       <c r="F101" t="s">
         <v>211</v>
       </c>
+      <c r="G101" t="s">
+        <v>211</v>
+      </c>
+      <c r="H101" t="s">
+        <v>211</v>
+      </c>
+      <c r="I101" t="s">
+        <v>211</v>
+      </c>
+      <c r="J101" t="s">
+        <v>211</v>
+      </c>
+      <c r="K101" t="s">
+        <v>211</v>
+      </c>
+      <c r="L101" t="s">
+        <v>211</v>
+      </c>
+      <c r="M101" t="s">
+        <v>211</v>
+      </c>
+      <c r="N101" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5632,6 +6520,30 @@
       <c r="F108" t="s">
         <v>211</v>
       </c>
+      <c r="G108" t="s">
+        <v>211</v>
+      </c>
+      <c r="H108" t="s">
+        <v>211</v>
+      </c>
+      <c r="I108" t="s">
+        <v>211</v>
+      </c>
+      <c r="J108" t="s">
+        <v>211</v>
+      </c>
+      <c r="K108" t="s">
+        <v>211</v>
+      </c>
+      <c r="L108" t="s">
+        <v>211</v>
+      </c>
+      <c r="M108" t="s">
+        <v>211</v>
+      </c>
+      <c r="N108" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5696,6 +6608,30 @@
       <c r="F110" t="s">
         <v>211</v>
       </c>
+      <c r="G110" t="s">
+        <v>211</v>
+      </c>
+      <c r="H110" t="s">
+        <v>211</v>
+      </c>
+      <c r="I110" t="s">
+        <v>211</v>
+      </c>
+      <c r="J110" t="s">
+        <v>211</v>
+      </c>
+      <c r="K110" t="s">
+        <v>211</v>
+      </c>
+      <c r="L110" t="s">
+        <v>211</v>
+      </c>
+      <c r="M110" t="s">
+        <v>211</v>
+      </c>
+      <c r="N110" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5936,6 +6872,30 @@
       <c r="F116" t="s">
         <v>211</v>
       </c>
+      <c r="G116" t="s">
+        <v>211</v>
+      </c>
+      <c r="H116" t="s">
+        <v>211</v>
+      </c>
+      <c r="I116" t="s">
+        <v>211</v>
+      </c>
+      <c r="J116" t="s">
+        <v>211</v>
+      </c>
+      <c r="K116" t="s">
+        <v>211</v>
+      </c>
+      <c r="L116" t="s">
+        <v>211</v>
+      </c>
+      <c r="M116" t="s">
+        <v>211</v>
+      </c>
+      <c r="N116" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
@@ -5956,6 +6916,30 @@
       <c r="F117" t="s">
         <v>211</v>
       </c>
+      <c r="G117" t="s">
+        <v>211</v>
+      </c>
+      <c r="H117" t="s">
+        <v>211</v>
+      </c>
+      <c r="I117" t="s">
+        <v>211</v>
+      </c>
+      <c r="J117" t="s">
+        <v>211</v>
+      </c>
+      <c r="K117" t="s">
+        <v>211</v>
+      </c>
+      <c r="L117" t="s">
+        <v>211</v>
+      </c>
+      <c r="M117" t="s">
+        <v>211</v>
+      </c>
+      <c r="N117" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
@@ -5976,6 +6960,30 @@
       <c r="F118" t="s">
         <v>211</v>
       </c>
+      <c r="G118" t="s">
+        <v>211</v>
+      </c>
+      <c r="H118" t="s">
+        <v>211</v>
+      </c>
+      <c r="I118" t="s">
+        <v>211</v>
+      </c>
+      <c r="J118" t="s">
+        <v>211</v>
+      </c>
+      <c r="K118" t="s">
+        <v>211</v>
+      </c>
+      <c r="L118" t="s">
+        <v>211</v>
+      </c>
+      <c r="M118" t="s">
+        <v>211</v>
+      </c>
+      <c r="N118" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
@@ -6040,6 +7048,30 @@
       <c r="F120" t="s">
         <v>211</v>
       </c>
+      <c r="G120" t="s">
+        <v>211</v>
+      </c>
+      <c r="H120" t="s">
+        <v>211</v>
+      </c>
+      <c r="I120" t="s">
+        <v>211</v>
+      </c>
+      <c r="J120" t="s">
+        <v>211</v>
+      </c>
+      <c r="K120" t="s">
+        <v>211</v>
+      </c>
+      <c r="L120" t="s">
+        <v>211</v>
+      </c>
+      <c r="M120" t="s">
+        <v>211</v>
+      </c>
+      <c r="N120" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
@@ -6148,6 +7180,30 @@
       <c r="F123" t="s">
         <v>211</v>
       </c>
+      <c r="G123" t="s">
+        <v>211</v>
+      </c>
+      <c r="H123" t="s">
+        <v>211</v>
+      </c>
+      <c r="I123" t="s">
+        <v>211</v>
+      </c>
+      <c r="J123" t="s">
+        <v>211</v>
+      </c>
+      <c r="K123" t="s">
+        <v>211</v>
+      </c>
+      <c r="L123" t="s">
+        <v>211</v>
+      </c>
+      <c r="M123" t="s">
+        <v>211</v>
+      </c>
+      <c r="N123" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6300,6 +7356,30 @@
       <c r="F127" t="s">
         <v>211</v>
       </c>
+      <c r="G127" t="s">
+        <v>211</v>
+      </c>
+      <c r="H127" t="s">
+        <v>211</v>
+      </c>
+      <c r="I127" t="s">
+        <v>211</v>
+      </c>
+      <c r="J127" t="s">
+        <v>211</v>
+      </c>
+      <c r="K127" t="s">
+        <v>211</v>
+      </c>
+      <c r="L127" t="s">
+        <v>211</v>
+      </c>
+      <c r="M127" t="s">
+        <v>211</v>
+      </c>
+      <c r="N127" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
@@ -6364,6 +7444,30 @@
       <c r="F129" t="s">
         <v>211</v>
       </c>
+      <c r="G129" t="s">
+        <v>211</v>
+      </c>
+      <c r="H129" t="s">
+        <v>211</v>
+      </c>
+      <c r="I129" t="s">
+        <v>211</v>
+      </c>
+      <c r="J129" t="s">
+        <v>211</v>
+      </c>
+      <c r="K129" t="s">
+        <v>211</v>
+      </c>
+      <c r="L129" t="s">
+        <v>211</v>
+      </c>
+      <c r="M129" t="s">
+        <v>211</v>
+      </c>
+      <c r="N129" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
@@ -6428,6 +7532,30 @@
       <c r="F131" t="s">
         <v>211</v>
       </c>
+      <c r="G131" t="s">
+        <v>211</v>
+      </c>
+      <c r="H131" t="s">
+        <v>211</v>
+      </c>
+      <c r="I131" t="s">
+        <v>211</v>
+      </c>
+      <c r="J131" t="s">
+        <v>211</v>
+      </c>
+      <c r="K131" t="s">
+        <v>211</v>
+      </c>
+      <c r="L131" t="s">
+        <v>211</v>
+      </c>
+      <c r="M131" t="s">
+        <v>211</v>
+      </c>
+      <c r="N131" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
@@ -6448,6 +7576,30 @@
       <c r="F132" t="s">
         <v>211</v>
       </c>
+      <c r="G132" t="s">
+        <v>211</v>
+      </c>
+      <c r="H132" t="s">
+        <v>211</v>
+      </c>
+      <c r="I132" t="s">
+        <v>211</v>
+      </c>
+      <c r="J132" t="s">
+        <v>211</v>
+      </c>
+      <c r="K132" t="s">
+        <v>211</v>
+      </c>
+      <c r="L132" t="s">
+        <v>211</v>
+      </c>
+      <c r="M132" t="s">
+        <v>211</v>
+      </c>
+      <c r="N132" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
@@ -6556,6 +7708,30 @@
       <c r="F135" t="s">
         <v>211</v>
       </c>
+      <c r="G135" t="s">
+        <v>211</v>
+      </c>
+      <c r="H135" t="s">
+        <v>211</v>
+      </c>
+      <c r="I135" t="s">
+        <v>211</v>
+      </c>
+      <c r="J135" t="s">
+        <v>211</v>
+      </c>
+      <c r="K135" t="s">
+        <v>211</v>
+      </c>
+      <c r="L135" t="s">
+        <v>211</v>
+      </c>
+      <c r="M135" t="s">
+        <v>211</v>
+      </c>
+      <c r="N135" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6664,6 +7840,30 @@
       <c r="F138" t="s">
         <v>211</v>
       </c>
+      <c r="G138" t="s">
+        <v>211</v>
+      </c>
+      <c r="H138" t="s">
+        <v>211</v>
+      </c>
+      <c r="I138" t="s">
+        <v>211</v>
+      </c>
+      <c r="J138" t="s">
+        <v>211</v>
+      </c>
+      <c r="K138" t="s">
+        <v>211</v>
+      </c>
+      <c r="L138" t="s">
+        <v>211</v>
+      </c>
+      <c r="M138" t="s">
+        <v>211</v>
+      </c>
+      <c r="N138" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
@@ -6860,6 +8060,30 @@
       <c r="F143" t="s">
         <v>211</v>
       </c>
+      <c r="G143" t="s">
+        <v>211</v>
+      </c>
+      <c r="H143" t="s">
+        <v>211</v>
+      </c>
+      <c r="I143" t="s">
+        <v>211</v>
+      </c>
+      <c r="J143" t="s">
+        <v>211</v>
+      </c>
+      <c r="K143" t="s">
+        <v>211</v>
+      </c>
+      <c r="L143" t="s">
+        <v>211</v>
+      </c>
+      <c r="M143" t="s">
+        <v>211</v>
+      </c>
+      <c r="N143" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
@@ -6968,6 +8192,30 @@
       <c r="F146" t="s">
         <v>211</v>
       </c>
+      <c r="G146" t="s">
+        <v>211</v>
+      </c>
+      <c r="H146" t="s">
+        <v>211</v>
+      </c>
+      <c r="I146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K146" t="s">
+        <v>211</v>
+      </c>
+      <c r="L146" t="s">
+        <v>211</v>
+      </c>
+      <c r="M146" t="s">
+        <v>211</v>
+      </c>
+      <c r="N146" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
@@ -7120,6 +8368,30 @@
       <c r="F150" t="s">
         <v>211</v>
       </c>
+      <c r="G150" t="s">
+        <v>211</v>
+      </c>
+      <c r="H150" t="s">
+        <v>211</v>
+      </c>
+      <c r="I150" t="s">
+        <v>211</v>
+      </c>
+      <c r="J150" t="s">
+        <v>211</v>
+      </c>
+      <c r="K150" t="s">
+        <v>211</v>
+      </c>
+      <c r="L150" t="s">
+        <v>211</v>
+      </c>
+      <c r="M150" t="s">
+        <v>211</v>
+      </c>
+      <c r="N150" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
@@ -7272,6 +8544,30 @@
       <c r="F154" t="s">
         <v>211</v>
       </c>
+      <c r="G154" t="s">
+        <v>211</v>
+      </c>
+      <c r="H154" t="s">
+        <v>211</v>
+      </c>
+      <c r="I154" t="s">
+        <v>211</v>
+      </c>
+      <c r="J154" t="s">
+        <v>211</v>
+      </c>
+      <c r="K154" t="s">
+        <v>211</v>
+      </c>
+      <c r="L154" t="s">
+        <v>211</v>
+      </c>
+      <c r="M154" t="s">
+        <v>211</v>
+      </c>
+      <c r="N154" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
@@ -7424,6 +8720,30 @@
       <c r="F158" t="s">
         <v>211</v>
       </c>
+      <c r="G158" t="s">
+        <v>211</v>
+      </c>
+      <c r="H158" t="s">
+        <v>211</v>
+      </c>
+      <c r="I158" t="s">
+        <v>211</v>
+      </c>
+      <c r="J158" t="s">
+        <v>211</v>
+      </c>
+      <c r="K158" t="s">
+        <v>211</v>
+      </c>
+      <c r="L158" t="s">
+        <v>211</v>
+      </c>
+      <c r="M158" t="s">
+        <v>211</v>
+      </c>
+      <c r="N158" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
@@ -7488,6 +8808,30 @@
       <c r="F160" t="s">
         <v>211</v>
       </c>
+      <c r="G160" t="s">
+        <v>211</v>
+      </c>
+      <c r="H160" t="s">
+        <v>211</v>
+      </c>
+      <c r="I160" t="s">
+        <v>211</v>
+      </c>
+      <c r="J160" t="s">
+        <v>211</v>
+      </c>
+      <c r="K160" t="s">
+        <v>211</v>
+      </c>
+      <c r="L160" t="s">
+        <v>211</v>
+      </c>
+      <c r="M160" t="s">
+        <v>211</v>
+      </c>
+      <c r="N160" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
@@ -7772,6 +9116,30 @@
       <c r="F167" t="s">
         <v>211</v>
       </c>
+      <c r="G167" t="s">
+        <v>211</v>
+      </c>
+      <c r="H167" t="s">
+        <v>211</v>
+      </c>
+      <c r="I167" t="s">
+        <v>211</v>
+      </c>
+      <c r="J167" t="s">
+        <v>211</v>
+      </c>
+      <c r="K167" t="s">
+        <v>211</v>
+      </c>
+      <c r="L167" t="s">
+        <v>211</v>
+      </c>
+      <c r="M167" t="s">
+        <v>211</v>
+      </c>
+      <c r="N167" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
@@ -7836,6 +9204,30 @@
       <c r="F169" t="s">
         <v>211</v>
       </c>
+      <c r="G169" t="s">
+        <v>211</v>
+      </c>
+      <c r="H169" t="s">
+        <v>211</v>
+      </c>
+      <c r="I169" t="s">
+        <v>211</v>
+      </c>
+      <c r="J169" t="s">
+        <v>211</v>
+      </c>
+      <c r="K169" t="s">
+        <v>211</v>
+      </c>
+      <c r="L169" t="s">
+        <v>211</v>
+      </c>
+      <c r="M169" t="s">
+        <v>211</v>
+      </c>
+      <c r="N169" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
@@ -7856,6 +9248,30 @@
       <c r="F170" t="s">
         <v>211</v>
       </c>
+      <c r="G170" t="s">
+        <v>211</v>
+      </c>
+      <c r="H170" t="s">
+        <v>211</v>
+      </c>
+      <c r="I170" t="s">
+        <v>211</v>
+      </c>
+      <c r="J170" t="s">
+        <v>211</v>
+      </c>
+      <c r="K170" t="s">
+        <v>211</v>
+      </c>
+      <c r="L170" t="s">
+        <v>211</v>
+      </c>
+      <c r="M170" t="s">
+        <v>211</v>
+      </c>
+      <c r="N170" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -7920,6 +9336,30 @@
       <c r="F172" t="s">
         <v>211</v>
       </c>
+      <c r="G172" t="s">
+        <v>211</v>
+      </c>
+      <c r="H172" t="s">
+        <v>211</v>
+      </c>
+      <c r="I172" t="s">
+        <v>211</v>
+      </c>
+      <c r="J172" t="s">
+        <v>211</v>
+      </c>
+      <c r="K172" t="s">
+        <v>211</v>
+      </c>
+      <c r="L172" t="s">
+        <v>211</v>
+      </c>
+      <c r="M172" t="s">
+        <v>211</v>
+      </c>
+      <c r="N172" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
@@ -8204,6 +9644,30 @@
       <c r="F179" t="s">
         <v>211</v>
       </c>
+      <c r="G179" t="s">
+        <v>211</v>
+      </c>
+      <c r="H179" t="s">
+        <v>211</v>
+      </c>
+      <c r="I179" t="s">
+        <v>211</v>
+      </c>
+      <c r="J179" t="s">
+        <v>211</v>
+      </c>
+      <c r="K179" t="s">
+        <v>211</v>
+      </c>
+      <c r="L179" t="s">
+        <v>211</v>
+      </c>
+      <c r="M179" t="s">
+        <v>211</v>
+      </c>
+      <c r="N179" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
@@ -8224,6 +9688,30 @@
       <c r="F180" t="s">
         <v>211</v>
       </c>
+      <c r="G180" t="s">
+        <v>211</v>
+      </c>
+      <c r="H180" t="s">
+        <v>211</v>
+      </c>
+      <c r="I180" t="s">
+        <v>211</v>
+      </c>
+      <c r="J180" t="s">
+        <v>211</v>
+      </c>
+      <c r="K180" t="s">
+        <v>211</v>
+      </c>
+      <c r="L180" t="s">
+        <v>211</v>
+      </c>
+      <c r="M180" t="s">
+        <v>211</v>
+      </c>
+      <c r="N180" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1">
@@ -8332,6 +9820,30 @@
       <c r="F183" t="s">
         <v>211</v>
       </c>
+      <c r="G183" t="s">
+        <v>211</v>
+      </c>
+      <c r="H183" t="s">
+        <v>211</v>
+      </c>
+      <c r="I183" t="s">
+        <v>211</v>
+      </c>
+      <c r="J183" t="s">
+        <v>211</v>
+      </c>
+      <c r="K183" t="s">
+        <v>211</v>
+      </c>
+      <c r="L183" t="s">
+        <v>211</v>
+      </c>
+      <c r="M183" t="s">
+        <v>211</v>
+      </c>
+      <c r="N183" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
@@ -8614,6 +10126,30 @@
         <v>1</v>
       </c>
       <c r="F190" t="s">
+        <v>211</v>
+      </c>
+      <c r="G190" t="s">
+        <v>211</v>
+      </c>
+      <c r="H190" t="s">
+        <v>211</v>
+      </c>
+      <c r="I190" t="s">
+        <v>211</v>
+      </c>
+      <c r="J190" t="s">
+        <v>211</v>
+      </c>
+      <c r="K190" t="s">
+        <v>211</v>
+      </c>
+      <c r="L190" t="s">
+        <v>211</v>
+      </c>
+      <c r="M190" t="s">
+        <v>211</v>
+      </c>
+      <c r="N190" t="s">
         <v>211</v>
       </c>
     </row>

--- a/sequences/05_retrieval_2.xlsx
+++ b/sequences/05_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>heißen</t>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>werden</t>
   </si>
   <si>
     <t>zielen</t>
   </si>
   <si>
-    <t>fühlen</t>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>tauchen</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>regeln</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>zeichnen</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>fehlen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>ärgern</t>
   </si>
   <si>
     <t>holen</t>
   </si>
   <si>
-    <t>fassen</t>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>stellen</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>hindern</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>prügeln</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>pissen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>schlafen</t>
   </si>
   <si>
     <t>wachsen</t>
   </si>
   <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>stürzen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>saufen</t>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>leihen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>achten</t>
   </si>
   <si>
     <t>backen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>wärmen</t>
-  </si>
-  <si>
-    <t>graben</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>daten</t>
-  </si>
-  <si>
-    <t>heulen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>scheiden</t>
-  </si>
-  <si>
-    <t>scheinen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>fehlen</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>klingeln</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>trösten</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>schämen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>stinken</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>lügen</t>
   </si>
   <si>
     <t>face/face012.jpg</t>
